--- a/CVD_recipe1.xlsx
+++ b/CVD_recipe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,17 +417,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375"/>
     <col min="2" max="2" width="8"/>
-    <col min="3" max="1025" width="8.77734375"/>
+    <col min="3" max="9" width="8.77734375"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="18" width="8.77734375"/>
+    <col min="20" max="1026" width="8.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -435,10 +438,10 @@
         <v>18</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -453,7 +456,7 @@
         <v>-1</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I1">
         <v>-1</v>
@@ -462,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L1">
         <v>-1</v>
@@ -480,6 +483,9 @@
         <v>-1</v>
       </c>
       <c r="Q1">
+        <v>-1</v>
+      </c>
+      <c r="R1">
         <v>-1</v>
       </c>
     </row>
@@ -488,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
         <v>1000</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -510,6 +516,9 @@
       </c>
       <c r="I2">
         <v>100</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -541,31 +550,31 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -582,18 +591,15 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>100</v>
-      </c>
-      <c r="R4">
-        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -605,15 +611,15 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>500</v>
-      </c>
-      <c r="R5">
-        <v>400</v>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>250</v>
@@ -621,13 +627,10 @@
       <c r="C6">
         <v>50</v>
       </c>
-      <c r="R6">
-        <v>600</v>
-      </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -639,39 +642,55 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.4</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="R8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>